--- a/spring-boot/spring-boot-english/src/main/resources/data/vocabulary.xlsx
+++ b/spring-boot/spring-boot-english/src/main/resources/data/vocabulary.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Github\spring-framework\spring-boot\spring-boot-english\src\main\resources\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDrive\ToCompany\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455" tabRatio="775" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="775" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="719">
   <si>
     <t>Given</t>
   </si>
@@ -101,9 +101,6 @@
     <t>May</t>
   </si>
   <si>
-    <t>Auxiliary</t>
-  </si>
-  <si>
     <t>Operand</t>
   </si>
   <si>
@@ -176,12 +173,6 @@
     <t>Thập kỷ</t>
   </si>
   <si>
-    <t>Qua nhiều thập kỷ</t>
-  </si>
-  <si>
-    <t>Over decades</t>
-  </si>
-  <si>
     <t>We work until five today</t>
   </si>
   <si>
@@ -209,9 +200,6 @@
     <t>Period</t>
   </si>
   <si>
-    <t>Khoảng thời gian</t>
-  </si>
-  <si>
     <t>Mystery</t>
   </si>
   <si>
@@ -440,9 +428,6 @@
     <t>op-p-rei-dor</t>
   </si>
   <si>
-    <t>Sóng</t>
-  </si>
-  <si>
     <t>Ship</t>
   </si>
   <si>
@@ -500,9 +485,6 @@
     <t>weɪ-v</t>
   </si>
   <si>
-    <t>Vẩy tay (chào, tạm biệt)</t>
-  </si>
-  <si>
     <t>Still</t>
   </si>
   <si>
@@ -2150,17 +2132,80 @@
     <t>hear</t>
   </si>
   <si>
+    <t>colorful</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>màu tím</t>
+  </si>
+  <si>
+    <t>whose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whenever </t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>bất cứ khi nào</t>
+  </si>
+  <si>
+    <t>Use them whenever you want</t>
+  </si>
+  <si>
+    <t>Sử dụng chúng bất cứ khi nào bạn muốn</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>thịt</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>bữa ăn</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>correctly</t>
+  </si>
+  <si>
+    <t>manually</t>
+  </si>
+  <si>
+    <t>increase </t>
+  </si>
+  <si>
+    <t>Giai đoạn (stage)</t>
+  </si>
+  <si>
+    <t>Điều/Đồ đạt</t>
+  </si>
+  <si>
+    <t>hire </t>
+  </si>
+  <si>
     <t>Có thể/Tháng 5</t>
   </si>
   <si>
-    <t>Điều/Đồ đạt</t>
+    <t>Sóng/Vẩy tay (chào, tạm biệt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2228,6 +2273,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2249,7 +2300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2278,6 +2329,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2561,236 +2613,236 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -2802,49 +2854,49 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C4" t="s">
-        <v>603</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -2856,49 +2908,49 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>682</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="C4" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -2909,82 +2961,82 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A2:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>530</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C7" t="s">
-        <v>531</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -2998,187 +3050,185 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -3190,50 +3240,50 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" t="s">
-        <v>330</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3247,113 +3297,113 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -3365,91 +3415,102 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A2:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -3458,125 +3519,114 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C17" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>551</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>562</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C19" t="s">
-        <v>563</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3588,23 +3638,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A2:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3615,132 +3665,132 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" t="s">
         <v>537</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C10" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C11" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>567</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C12" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -3754,254 +3804,254 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>473</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -4019,103 +4069,103 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C8" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C9" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -4129,122 +4179,122 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>234</v>
+        <v>140</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>314</v>
+        <v>226</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>373</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="C9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>578</v>
+        <v>494</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>496</v>
       </c>
       <c r="C10" t="s">
-        <v>577</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -4259,25 +4309,25 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4288,152 +4338,149 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C11" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C12" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -4444,88 +4491,88 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4533,31 +4580,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4565,161 +4612,169 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C20" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C23" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C27" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C30" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C31" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C33" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C34" t="s">
-        <v>656</v>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>703</v>
+      </c>
+      <c r="C35" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -4730,117 +4785,182 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="I2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="G3" t="s">
+        <v>680</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="G4" t="s">
+        <v>682</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="G3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F4" s="15" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="11" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="10" t="s">
+      <c r="G12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G17" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
+      <c r="G18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
-        <v>701</v>
+      <c r="G19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G21" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G22" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -4858,221 +4978,221 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>507</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>358</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5083,143 +5203,138 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C10" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C11" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -5237,120 +5352,120 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5368,164 +5483,164 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>328</v>
       </c>
-      <c r="C2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>334</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C13" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C14" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -5542,42 +5657,42 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5585,26 +5700,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5621,33 +5736,33 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -5664,55 +5779,55 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/spring-boot/spring-boot-english/src/main/resources/data/vocabulary.xlsx
+++ b/spring-boot/spring-boot-english/src/main/resources/data/vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="775" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="775" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="724">
   <si>
     <t>Given</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Hội chợ</t>
   </si>
   <si>
-    <t>Sân khấu</t>
-  </si>
-  <si>
     <t>Stage</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>Cánh cổng</t>
   </si>
   <si>
-    <t>Gate way</t>
-  </si>
-  <si>
     <t>Lối vào</t>
   </si>
   <si>
@@ -587,18 +581,12 @@
     <t>a-tist</t>
   </si>
   <si>
-    <t>Họa sĩ</t>
-  </si>
-  <si>
     <t>Lawyer</t>
   </si>
   <si>
     <t>loi-yer</t>
   </si>
   <si>
-    <t>Luật sư</t>
-  </si>
-  <si>
     <t>Secretary</t>
   </si>
   <si>
@@ -764,9 +752,6 @@
     <t>Letter</t>
   </si>
   <si>
-    <t>le-thơ</t>
-  </si>
-  <si>
     <t>Chữ cái, lá thư</t>
   </si>
   <si>
@@ -920,9 +905,6 @@
     <t>Responsible</t>
   </si>
   <si>
-    <t>Trách nhiệm, đáng tin cậy</t>
-  </si>
-  <si>
     <t>Who is responsible?</t>
   </si>
   <si>
@@ -1079,9 +1061,6 @@
     <t>wo-den</t>
   </si>
   <si>
-    <t>Bằng gỗ</t>
-  </si>
-  <si>
     <t>Opposite</t>
   </si>
   <si>
@@ -1211,9 +1190,6 @@
     <t>Benefit</t>
   </si>
   <si>
-    <t>be-ne-fit</t>
-  </si>
-  <si>
     <t>Quyền lợi</t>
   </si>
   <si>
@@ -1235,9 +1211,6 @@
     <t>ɪk-sep-t</t>
   </si>
   <si>
-    <t>Giai đoạn</t>
-  </si>
-  <si>
     <t>Modern</t>
   </si>
   <si>
@@ -1883,12 +1856,6 @@
     <t>sprɪŋ</t>
   </si>
   <si>
-    <t>Buồm (noun)</t>
-  </si>
-  <si>
-    <t>Lái thuyền (verb)</t>
-  </si>
-  <si>
     <t>Mùa thu</t>
   </si>
   <si>
@@ -2199,6 +2166,54 @@
   </si>
   <si>
     <t>Sóng/Vẩy tay (chào, tạm biệt)</t>
+  </si>
+  <si>
+    <t>Nghệ sĩ, họa sĩ</t>
+  </si>
+  <si>
+    <t>Luật sư (lawyer)</t>
+  </si>
+  <si>
+    <t>Luật sư (attorney)</t>
+  </si>
+  <si>
+    <t>Gỗ</t>
+  </si>
+  <si>
+    <t>rəs'-pɑn-sə-bəl</t>
+  </si>
+  <si>
+    <t>Chịu trách nhiệm</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>ɡeit-weɪ</t>
+  </si>
+  <si>
+    <t>ɡeit</t>
+  </si>
+  <si>
+    <t>ɡɪ-vən</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>be-nə-fɪt</t>
+  </si>
+  <si>
+    <t>bæɡ</t>
+  </si>
+  <si>
+    <t>le-tər</t>
+  </si>
+  <si>
+    <t>Sân khấu/Giai đoạn</t>
+  </si>
+  <si>
+    <t>Buồm (noun)/Lái thuyền (verb)</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2629,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2627,222 +2642,222 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -2868,35 +2883,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -2922,35 +2937,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="C1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="C3" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -2964,7 +2979,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2975,13 +2990,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2989,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2997,46 +3012,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>721</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -3063,13 +3078,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3077,67 +3092,67 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -3145,65 +3160,65 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -3211,24 +3226,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -3255,13 +3270,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3269,7 +3284,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -3277,13 +3292,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3309,13 +3324,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="C1" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3323,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3334,7 +3349,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -3345,65 +3360,65 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>530</v>
-      </c>
       <c r="C9" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3430,24 +3445,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3455,7 +3470,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -3463,46 +3478,46 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3510,7 +3525,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -3521,112 +3536,112 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C14" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3648,13 +3663,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3668,129 +3683,132 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>286</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>712</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C8" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C9" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C10" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C11" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -3804,254 +3822,250 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>397</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>614</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -4066,7 +4080,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4077,51 +4091,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>719</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4129,7 +4149,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -4137,35 +4157,35 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C8" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="C9" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -4180,7 +4200,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4195,29 +4215,29 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C2" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4225,7 +4245,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -4233,68 +4253,68 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C10" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4309,7 +4329,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4321,13 +4341,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -4340,8 +4360,8 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4353,134 +4373,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C1" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
         <v>150</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C10" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C11" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C12" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -4513,18 +4533,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4537,39 +4557,39 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4582,10 +4602,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4593,7 +4613,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4614,26 +4634,26 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C15" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4646,135 +4666,135 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C19" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C20" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C25" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C27" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C28" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C30" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C31" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C33" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="C34" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="C35" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -4803,164 +4823,164 @@
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="I2" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="G3" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="G4" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F8" s="10" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F9" s="13" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="G12" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="G17" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="G18" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G19" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G21" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G22" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -4988,79 +5008,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5068,131 +5088,131 @@
         <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5220,121 +5240,121 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C10" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="C11" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -5360,112 +5380,112 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5494,7 +5514,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
         <v>36</v>
@@ -5502,145 +5522,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C11" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C13" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C14" t="s">
         <v>675</v>
-      </c>
-      <c r="C14" t="s">
-        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -5654,7 +5674,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5667,59 +5687,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>714</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>715</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="9" t="s">
+        <v>717</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5745,24 +5774,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -5788,46 +5817,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/spring-boot/spring-boot-english/src/main/resources/data/vocabulary.xlsx
+++ b/spring-boot/spring-boot-english/src/main/resources/data/vocabulary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="775" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="775" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="724">
-  <si>
-    <t>Given</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="744">
   <si>
     <t>Cho</t>
   </si>
@@ -413,9 +410,6 @@
     <t>pa-kit</t>
   </si>
   <si>
-    <t>əbˈteɪn</t>
-  </si>
-  <si>
     <t>op-p-rein</t>
   </si>
   <si>
@@ -461,9 +455,6 @@
     <t>Treasure</t>
   </si>
   <si>
-    <t>tre-ze</t>
-  </si>
-  <si>
     <t>Kho báu</t>
   </si>
   <si>
@@ -1235,9 +1226,6 @@
     <t>roa-bɚ</t>
   </si>
   <si>
-    <t>Tên cướp</t>
-  </si>
-  <si>
     <t>Rent</t>
   </si>
   <si>
@@ -1931,9 +1919,6 @@
     <t>Vô vị</t>
   </si>
   <si>
-    <t>teɪst.ləs</t>
-  </si>
-  <si>
     <t>Adjective</t>
   </si>
   <si>
@@ -2144,24 +2129,15 @@
     <t>breakfast</t>
   </si>
   <si>
-    <t>correctly</t>
-  </si>
-  <si>
     <t>manually</t>
   </si>
   <si>
-    <t>increase </t>
-  </si>
-  <si>
     <t>Giai đoạn (stage)</t>
   </si>
   <si>
     <t>Điều/Đồ đạt</t>
   </si>
   <si>
-    <t>hire </t>
-  </si>
-  <si>
     <t>Có thể/Tháng 5</t>
   </si>
   <si>
@@ -2214,13 +2190,119 @@
   </si>
   <si>
     <t>Buồm (noun)/Lái thuyền (verb)</t>
+  </si>
+  <si>
+    <t>Get off</t>
+  </si>
+  <si>
+    <t>Xuống</t>
+  </si>
+  <si>
+    <t>teɪst-ləs</t>
+  </si>
+  <si>
+    <t>tre-zə</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>mə-ni</t>
+  </si>
+  <si>
+    <t>Tiền</t>
+  </si>
+  <si>
+    <t>Hire</t>
+  </si>
+  <si>
+    <t>hai-ər</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Tăng</t>
+  </si>
+  <si>
+    <t>ɪnˈ-kris</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Chính xác</t>
+  </si>
+  <si>
+    <t>kəˈ-rekt</t>
+  </si>
+  <si>
+    <t>əbˈ-teɪn</t>
+  </si>
+  <si>
+    <t>Cướp</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>Robbery</t>
+  </si>
+  <si>
+    <t>Vụ cướp</t>
+  </si>
+  <si>
+    <t>roa-bɚ-ri</t>
+  </si>
+  <si>
+    <t>blond</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fifty kilometres </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>away from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LA</t>
+    </r>
+  </si>
+  <si>
+    <t>Cách LA 50 km</t>
+  </si>
+  <si>
+    <t>Fifty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget </t>
+  </si>
+  <si>
+    <t>at the desk</t>
+  </si>
+  <si>
+    <t>Give</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2259,39 +2341,45 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF15191D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A4353"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Georgia"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF15191D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3A4353"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF242729"/>
-      <name val="Arial"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2315,7 +2403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2338,13 +2426,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2642,222 +2731,222 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -2882,36 +2971,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>591</v>
-      </c>
       <c r="C1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2937,35 +3026,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -2990,68 +3079,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -3062,10 +3151,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3078,175 +3167,189 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>706</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>586</v>
+        <v>450</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>451</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>698</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
+    <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>170</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>634</v>
+        <v>103</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>291</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>330</v>
+        <v>629</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>584</v>
+        <v>720</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>457</v>
+        <v>721</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>633</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>637</v>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C16">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3270,35 +3373,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +3415,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3324,101 +3427,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>123</v>
+        <v>731</v>
       </c>
       <c r="C2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3432,8 +3535,8 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3445,203 +3548,203 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C14" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3663,13 +3766,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3680,10 +3783,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3695,120 +3798,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C4" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s">
-        <v>397</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C11" t="s">
-        <v>528</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>734</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C12" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3936,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3836,236 +3950,236 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -4091,101 +4205,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C9" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -4200,7 +4314,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4212,109 +4326,109 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>629</v>
+        <v>718</v>
       </c>
       <c r="C2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>719</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4341,13 +4455,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4475,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4373,134 +4487,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C11" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C12" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -4511,10 +4625,10 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,276 +4639,292 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C19" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C20" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C23" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C25" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C27" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C30" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C33" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C34" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C35" t="s">
-        <v>693</v>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>716</v>
+      </c>
+      <c r="C36" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>738</v>
+      </c>
+      <c r="C37" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -4808,179 +4938,189 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="I2" t="s">
-        <v>699</v>
+      <c r="F2" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="G3" t="s">
-        <v>669</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="G4" t="s">
-        <v>671</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>705</v>
+      <c r="I6" s="12" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F8" s="10" t="s">
-        <v>676</v>
+      <c r="F8" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F9" s="13" t="s">
-        <v>677</v>
+      <c r="F9" s="11" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="G12" t="s">
-        <v>681</v>
+        <v>675</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G17" t="s">
-        <v>687</v>
+        <v>681</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G18" t="s">
-        <v>690</v>
+        <v>683</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="G19" t="s">
-        <v>691</v>
+        <v>684</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="G21" t="s">
-        <v>696</v>
+        <v>690</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="G22" t="s">
-        <v>698</v>
+        <v>692</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -4992,10 +5132,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5008,211 +5148,222 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>728</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -5240,121 +5391,121 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C10" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C11" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -5380,112 +5531,112 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -5511,156 +5662,156 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C14" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -5673,8 +5824,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5687,68 +5838,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5759,39 +5910,50 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1" t="s">
-        <v>461</v>
+        <v>456</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="C1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
-        <v>545</v>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C3" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -5802,10 +5964,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5816,47 +5978,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>226</v>
+      <c r="A1" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" t="s">
-        <v>267</v>
+      <c r="A2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" t="s">
-        <v>326</v>
+      <c r="A3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" t="s">
-        <v>296</v>
+      <c r="A4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>

--- a/spring-boot/spring-boot-english/src/main/resources/data/vocabulary.xlsx
+++ b/spring-boot/spring-boot-english/src/main/resources/data/vocabulary.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDrive\ToCompany\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="775" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455" tabRatio="775" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="F" sheetId="13" r:id="rId6"/>
     <sheet name="G" sheetId="2" r:id="rId7"/>
     <sheet name="H" sheetId="25" r:id="rId8"/>
-    <sheet name="I" sheetId="22" r:id="rId9"/>
-    <sheet name="J" sheetId="24" r:id="rId10"/>
+    <sheet name="J" sheetId="24" r:id="rId9"/>
+    <sheet name="I" sheetId="22" r:id="rId10"/>
     <sheet name="K" sheetId="20" r:id="rId11"/>
     <sheet name="L" sheetId="3" r:id="rId12"/>
     <sheet name="M" sheetId="9" r:id="rId13"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="799">
   <si>
     <t>Cho</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Shout</t>
   </si>
   <si>
-    <t>sau-t</t>
-  </si>
-  <si>
     <t>Quiet</t>
   </si>
   <si>
@@ -782,9 +779,6 @@
     <t>Special</t>
   </si>
   <si>
-    <t>spec-cial</t>
-  </si>
-  <si>
     <t>Đặc biệt</t>
   </si>
   <si>
@@ -950,9 +944,6 @@
     <t>Văn hóa</t>
   </si>
   <si>
-    <t>ri-li-zis</t>
-  </si>
-  <si>
     <t>kau-tural</t>
   </si>
   <si>
@@ -962,9 +953,6 @@
     <t>Thư ký</t>
   </si>
   <si>
-    <t>sec-kê-tary</t>
-  </si>
-  <si>
     <t>What is wrong?</t>
   </si>
   <si>
@@ -983,9 +971,6 @@
     <t>Thân/quen thuộc</t>
   </si>
   <si>
-    <t>fa-mia-li-ơ</t>
-  </si>
-  <si>
     <t>Negative</t>
   </si>
   <si>
@@ -1400,9 +1385,6 @@
     <t>Mặt nạ</t>
   </si>
   <si>
-    <t>mæsk</t>
-  </si>
-  <si>
     <t>mei-bi</t>
   </si>
   <si>
@@ -1778,9 +1760,6 @@
     <t>meɪ</t>
   </si>
   <si>
-    <t>mɑr-k</t>
-  </si>
-  <si>
     <t>ma-rɪdʒ</t>
   </si>
   <si>
@@ -2021,9 +2000,6 @@
     <t>Feed</t>
   </si>
   <si>
-    <t>fii-d</t>
-  </si>
-  <si>
     <t>Knee</t>
   </si>
   <si>
@@ -2033,105 +2009,18 @@
     <t>Đầu gối</t>
   </si>
   <si>
-    <t>tasty</t>
-  </si>
-  <si>
-    <t>ngon</t>
-  </si>
-  <si>
-    <t>vegetarian</t>
-  </si>
-  <si>
-    <t>người ăn chay</t>
-  </si>
-  <si>
-    <t>beef</t>
-  </si>
-  <si>
-    <t>pork</t>
-  </si>
-  <si>
-    <t>sandwich</t>
-  </si>
-  <si>
     <t>Cho ăn</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>crab</t>
-  </si>
-  <si>
-    <t>suit</t>
-  </si>
-  <si>
     <t>Âu phục</t>
   </si>
   <si>
-    <t>touch</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hear</t>
-  </si>
-  <si>
-    <t>colorful</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>màu tím</t>
-  </si>
-  <si>
-    <t>whose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whenever </t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>bất cứ khi nào</t>
-  </si>
-  <si>
     <t>Use them whenever you want</t>
   </si>
   <si>
     <t>Sử dụng chúng bất cứ khi nào bạn muốn</t>
   </si>
   <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>thịt</t>
-  </si>
-  <si>
-    <t>meal</t>
-  </si>
-  <si>
-    <t>bữa ăn</t>
-  </si>
-  <si>
-    <t>breakfast</t>
-  </si>
-  <si>
-    <t>manually</t>
-  </si>
-  <si>
     <t>Giai đoạn (stage)</t>
   </si>
   <si>
@@ -2225,18 +2114,12 @@
     <t>Tăng</t>
   </si>
   <si>
-    <t>ɪnˈ-kris</t>
-  </si>
-  <si>
     <t>Correct</t>
   </si>
   <si>
     <t>Chính xác</t>
   </si>
   <si>
-    <t>kəˈ-rekt</t>
-  </si>
-  <si>
     <t>əbˈ-teɪn</t>
   </si>
   <si>
@@ -2253,9 +2136,6 @@
   </si>
   <si>
     <t>roa-bɚ-ri</t>
-  </si>
-  <si>
-    <t>blond</t>
   </si>
   <si>
     <r>
@@ -2292,17 +2172,302 @@
     <t xml:space="preserve">Budget </t>
   </si>
   <si>
-    <t>at the desk</t>
-  </si>
-  <si>
     <t>Give</t>
+  </si>
+  <si>
+    <t>fə'-mia-li-ər</t>
+  </si>
+  <si>
+    <t>ʃaʊ-t</t>
+  </si>
+  <si>
+    <t>Tasty</t>
+  </si>
+  <si>
+    <t>Ngon</t>
+  </si>
+  <si>
+    <t>teɪ-sti</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Thịt bò</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>Thịt heo</t>
+  </si>
+  <si>
+    <t>pôrk</t>
+  </si>
+  <si>
+    <t>Sandwich</t>
+  </si>
+  <si>
+    <t>Bánh mỳ kẹp</t>
+  </si>
+  <si>
+    <t>sæn-wɪdʒ</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>pei</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>bred</t>
+  </si>
+  <si>
+    <t>Bánh mỳ</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>ɔɪl</t>
+  </si>
+  <si>
+    <t>Dầu</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>kræ-b</t>
+  </si>
+  <si>
+    <t>Con cua</t>
+  </si>
+  <si>
+    <t>kəˈ-rek-kt</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>suz-t</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Chạm</t>
+  </si>
+  <si>
+    <t>tʌtʃ</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Ủng hộ</t>
+  </si>
+  <si>
+    <t>səˈp-pɔr-t</t>
+  </si>
+  <si>
+    <t>sek-kər-te-ri</t>
+  </si>
+  <si>
+    <t>spe-ʃəl</t>
+  </si>
+  <si>
+    <t>ʃəl</t>
+  </si>
+  <si>
+    <t>sô</t>
+  </si>
+  <si>
+    <t>ʃən</t>
+  </si>
+  <si>
+    <t>sanh</t>
+  </si>
+  <si>
+    <t>nəl</t>
+  </si>
+  <si>
+    <t>nô</t>
+  </si>
+  <si>
+    <t>ə</t>
+  </si>
+  <si>
+    <t>ơ</t>
+  </si>
+  <si>
+    <t>Hear</t>
+  </si>
+  <si>
+    <t>hir</t>
+  </si>
+  <si>
+    <t>Nghe</t>
+  </si>
+  <si>
+    <t>Colorful</t>
+  </si>
+  <si>
+    <t>Sặc sỡ</t>
+  </si>
+  <si>
+    <t>kə-lər-fəl</t>
+  </si>
+  <si>
+    <t>fəl</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>pər-pəl</t>
+  </si>
+  <si>
+    <t>Màu tím</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>Ăn chay</t>
+  </si>
+  <si>
+    <t>ve-ʒi-te-ri-ən</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Bữa sáng</t>
+  </si>
+  <si>
+    <t>brek-fəst</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Thủ công</t>
+  </si>
+  <si>
+    <t>me-nju-əl</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Bữa ăn</t>
+  </si>
+  <si>
+    <t>mɪəl</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Thịt</t>
+  </si>
+  <si>
+    <t>miit-t</t>
+  </si>
+  <si>
+    <t>mɑsk/mæsk</t>
+  </si>
+  <si>
+    <t>mär-k</t>
+  </si>
+  <si>
+    <t>Whose</t>
+  </si>
+  <si>
+    <t>hu:z</t>
+  </si>
+  <si>
+    <t>Ai (của ai?)</t>
+  </si>
+  <si>
+    <t>Whenever</t>
+  </si>
+  <si>
+    <t>Bất cứ khi nào</t>
+  </si>
+  <si>
+    <t>wen-é-vɚ</t>
+  </si>
+  <si>
+    <t>Blond</t>
+  </si>
+  <si>
+    <t>Tóc vàng kim</t>
+  </si>
+  <si>
+    <t>blɑnd</t>
+  </si>
+  <si>
+    <t>bi:f</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>phôl</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>des-k</t>
+  </si>
+  <si>
+    <t>Bàn làm việc</t>
+  </si>
+  <si>
+    <t>Interesting</t>
+  </si>
+  <si>
+    <t>Thú vị</t>
+  </si>
+  <si>
+    <t>inˈ-kris</t>
+  </si>
+  <si>
+    <t>ín-trɪs-tɪn</t>
+  </si>
+  <si>
+    <t>ri'-li-zis</t>
+  </si>
+  <si>
+    <t>How sad is he?</t>
+  </si>
+  <si>
+    <t>Anh ấy buồn như thế nào?</t>
+  </si>
+  <si>
+    <t>Whay are you afraid?</t>
+  </si>
+  <si>
+    <t>Tại sao bạn sợ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2354,32 +2519,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3A4353"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF242729"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF050505"/>
-      <name val="Segoe UI Historic"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2403,7 +2550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2431,9 +2578,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2717,236 +2861,236 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -2957,55 +3101,88 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:C3"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="C2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C3" t="s">
-        <v>398</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>791</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3015,46 +3192,46 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C3" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -3068,79 +3245,79 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C4" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -3151,203 +3328,236 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>763</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>578</v>
+        <v>765</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>453</v>
+        <v>571</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>661</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>580</v>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>630</v>
+        <v>447</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>720</v>
+        <v>285</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>721</v>
+        <v>622</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>631</v>
+        <v>321</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>633</v>
+        <v>322</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>594</v>
+        <v>381</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>628</v>
+        <v>383</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C16">
+  <sortState ref="A2:C19">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3361,44 +3571,44 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -3412,116 +3622,127 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>731</v>
+        <v>692</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>722</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C10" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -3533,102 +3754,102 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="C5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -3637,114 +3858,147 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="C9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
         <v>269</v>
       </c>
-      <c r="C11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>532</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="C17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>710</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>716</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C20" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>754</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C21" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -3759,20 +4013,20 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3786,143 +4040,143 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="C3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>704</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>302</v>
+        <v>794</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" t="s">
         <v>518</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>734</v>
+        <v>695</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>736</v>
+        <v>697</v>
       </c>
       <c r="C12" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -3934,252 +4188,285 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>714</v>
+        <v>677</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>99</v>
+      <c r="B6" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>715</v>
+        <v>678</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>448</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>454</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="B20" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -4191,115 +4478,159 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>712</v>
+        <v>675</v>
       </c>
       <c r="C1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>710</v>
+        <v>673</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C8" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C9" t="s">
-        <v>657</v>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C10" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>760</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C12" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>780</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C13" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -4311,124 +4642,146 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>718</v>
+        <v>681</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="C7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" t="s">
         <v>359</v>
       </c>
-      <c r="C8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C10" t="s">
-        <v>482</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C11" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C12" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -4440,28 +4793,39 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C1" t="s">
-        <v>473</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -4472,149 +4836,172 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>146</v>
       </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="C6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C11" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C12" t="s">
-        <v>561</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>774</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>777</v>
+      </c>
+      <c r="B14" t="s">
+        <v>779</v>
+      </c>
+      <c r="C14" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -4625,19 +5012,19 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4645,23 +5032,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4669,7 +5056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -4677,7 +5064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4685,15 +5072,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4701,12 +5088,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4714,23 +5101,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4738,7 +5125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4746,31 +5133,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
         <v>163</v>
       </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -4778,23 +5165,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4802,20 +5189,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C23" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -4823,15 +5210,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4839,92 +5226,108 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C30" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C31" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C33" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C34" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="C35" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>716</v>
+        <v>679</v>
       </c>
       <c r="C36" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>738</v>
+        <v>698</v>
       </c>
       <c r="C37" t="s">
-        <v>739</v>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>795</v>
+      </c>
+      <c r="C38" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>797</v>
+      </c>
+      <c r="C39" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -4934,28 +5337,30 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:I22"/>
+  <sheetPr codeName="Sheet24">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -4963,164 +5368,86 @@
         <v>44</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="F5" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="I6" s="12" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F7" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="I7" s="17" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F8" s="16" t="s">
-        <v>671</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F9" s="11" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F10" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F11" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F12" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F13" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F14" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F15" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F16" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>693</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -5132,186 +5459,186 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -5322,48 +5649,70 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>690</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>730</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>729</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>725</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>750</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -5374,138 +5723,149 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="C3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="C8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C10" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C11" t="s">
-        <v>643</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>787</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C12" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -5520,82 +5880,82 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -5606,37 +5966,37 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -5651,167 +6011,167 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>313</v>
+        <v>703</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" t="s">
         <v>203</v>
       </c>
-      <c r="C4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" t="s">
         <v>133</v>
       </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" t="s">
         <v>404</v>
       </c>
-      <c r="C8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C13" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>658</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>659</v>
+        <v>651</v>
+      </c>
+      <c r="B14" t="s">
+        <v>307</v>
       </c>
       <c r="C14" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -5824,82 +6184,82 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>706</v>
+        <v>669</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>707</v>
+        <v>670</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>743</v>
+        <v>702</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5910,50 +6270,61 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>723</v>
+        <v>686</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C4" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -5963,76 +6334,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:C5"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>726</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>